--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo2-Lgr6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo2-Lgr6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Rspo2</t>
+  </si>
+  <si>
+    <t>Lgr6</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rspo2</t>
-  </si>
-  <si>
-    <t>Lgr6</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,40 +540,40 @@
         <v>0.504421</v>
       </c>
       <c r="I2">
-        <v>0.5281557931901733</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5281557931901733</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2280253333333333</v>
+        <v>0.01182833333333333</v>
       </c>
       <c r="N2">
-        <v>0.684076</v>
+        <v>0.035485</v>
       </c>
       <c r="O2">
-        <v>0.5347665151402629</v>
+        <v>0.03045376408867423</v>
       </c>
       <c r="P2">
-        <v>0.5347665151402629</v>
+        <v>0.03045376408867423</v>
       </c>
       <c r="Q2">
-        <v>0.03834025555511111</v>
+        <v>0.001988819909444445</v>
       </c>
       <c r="R2">
-        <v>0.345062299996</v>
+        <v>0.017899379185</v>
       </c>
       <c r="S2">
-        <v>0.2824400329754503</v>
+        <v>0.03045376408867423</v>
       </c>
       <c r="T2">
-        <v>0.2824400329754503</v>
+        <v>0.03045376408867423</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,10 +602,10 @@
         <v>0.504421</v>
       </c>
       <c r="I3">
-        <v>0.5281557931901733</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5281557931901733</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,60 +614,60 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1983763333333333</v>
+        <v>0.2280253333333333</v>
       </c>
       <c r="N3">
-        <v>0.595129</v>
+        <v>0.684076</v>
       </c>
       <c r="O3">
-        <v>0.4652334848597371</v>
+        <v>0.5870843771374921</v>
       </c>
       <c r="P3">
-        <v>0.4652334848597371</v>
+        <v>0.5870843771374921</v>
       </c>
       <c r="Q3">
-        <v>0.03335506281211111</v>
+        <v>0.03834025555511111</v>
       </c>
       <c r="R3">
-        <v>0.300195565309</v>
+        <v>0.345062299996</v>
       </c>
       <c r="S3">
-        <v>0.2457157602147229</v>
+        <v>0.5870843771374921</v>
       </c>
       <c r="T3">
-        <v>0.2457157602147229</v>
+        <v>0.5870843771374921</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1502133333333333</v>
+        <v>0.1681403333333333</v>
       </c>
       <c r="H4">
-        <v>0.45064</v>
+        <v>0.504421</v>
       </c>
       <c r="I4">
-        <v>0.4718442068098269</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4718442068098268</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,90 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2280253333333333</v>
+        <v>0.1485493333333333</v>
       </c>
       <c r="N4">
-        <v>0.684076</v>
+        <v>0.445648</v>
       </c>
       <c r="O4">
-        <v>0.5347665151402629</v>
+        <v>0.3824618587738337</v>
       </c>
       <c r="P4">
-        <v>0.5347665151402629</v>
+        <v>0.3824618587738337</v>
       </c>
       <c r="Q4">
-        <v>0.03425244540444444</v>
+        <v>0.02497713442311111</v>
       </c>
       <c r="R4">
-        <v>0.30827200864</v>
+        <v>0.224794209808</v>
       </c>
       <c r="S4">
-        <v>0.2523264821648126</v>
+        <v>0.3824618587738337</v>
       </c>
       <c r="T4">
-        <v>0.2523264821648126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.1502133333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.45064</v>
-      </c>
-      <c r="I5">
-        <v>0.4718442068098269</v>
-      </c>
-      <c r="J5">
-        <v>0.4718442068098268</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.1983763333333333</v>
-      </c>
-      <c r="N5">
-        <v>0.595129</v>
-      </c>
-      <c r="O5">
-        <v>0.4652334848597371</v>
-      </c>
-      <c r="P5">
-        <v>0.4652334848597371</v>
-      </c>
-      <c r="Q5">
-        <v>0.02979877028444445</v>
-      </c>
-      <c r="R5">
-        <v>0.26818893256</v>
-      </c>
-      <c r="S5">
-        <v>0.2195177246450143</v>
-      </c>
-      <c r="T5">
-        <v>0.2195177246450142</v>
+        <v>0.3824618587738337</v>
       </c>
     </row>
   </sheetData>
